--- a/14b.xlsx
+++ b/14b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDBFEA7-F570-48A2-BEE1-67E16C02DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27E5E2-D367-4898-B9D9-D0D145010F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>指数回帰</t>
     <rPh sb="0" eb="2">
@@ -232,6 +232,13 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>キンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数(b)</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16378,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
@@ -30942,7 +30949,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">

--- a/14b.xlsx
+++ b/14b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27E5E2-D367-4898-B9D9-D0D145010F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D14759-5779-4EBE-A797-7C567085F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>指数回帰</t>
     <rPh sb="0" eb="2">
@@ -79,16 +79,6 @@
     <t>底(a)</t>
     <rPh sb="0" eb="1">
       <t>テイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定数項(b)</t>
-    <rPh sb="0" eb="2">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16344,7 +16334,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -16352,18 +16342,18 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -16385,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
@@ -30908,7 +30898,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -30916,18 +30906,18 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -30949,7 +30939,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
@@ -45468,7 +45458,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -45481,19 +45471,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>0</v>
@@ -45523,7 +45513,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.7">
@@ -45740,7 +45730,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.7">
       <c r="N25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -45773,7 +45763,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -45783,22 +45773,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
@@ -46220,7 +46210,7 @@
         <v>32004533.236543998</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.7">
